--- a/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
+++ b/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\Debyt\Debyt\src\test\java\com\debyt\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="2130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>password</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Ahmed</t>
   </si>
   <si>
-    <t>saad@gmail.com</t>
-  </si>
-  <si>
     <t>12345678aA!</t>
   </si>
   <si>
@@ -63,6 +61,12 @@
   </si>
   <si>
     <t>https://www.facebook.com</t>
+  </si>
+  <si>
+    <t>(111) 111-1111</t>
+  </si>
+  <si>
+    <t>saad@gmaill.com</t>
   </si>
 </sst>
 </file>
@@ -403,7 +407,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,19 +447,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2">
-        <v>1111111111</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -466,4 +470,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
+++ b/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="2130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="2130" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>password</t>
   </si>
@@ -67,6 +67,39 @@
   </si>
   <si>
     <t>saad@gmaill.com</t>
+  </si>
+  <si>
+    <t>companylegalname</t>
+  </si>
+  <si>
+    <t>businessaddress</t>
+  </si>
+  <si>
+    <t>suitenumber</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>dallas</t>
+  </si>
+  <si>
+    <t>tx</t>
+  </si>
+  <si>
+    <t>65txD</t>
+  </si>
+  <si>
+    <t>Dallam Ct, Bel Air MD</t>
   </si>
 </sst>
 </file>
@@ -406,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,12 +507,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
+++ b/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="2130" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="2130" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>password</t>
   </si>
@@ -100,6 +101,18 @@
   </si>
   <si>
     <t>Dallam Ct, Bel Air MD</t>
+  </si>
+  <si>
+    <t>fein</t>
+  </si>
+  <si>
+    <t>annrev</t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>Active-De</t>
   </si>
 </sst>
 </file>
@@ -509,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -565,4 +578,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6547</v>
+      </c>
+      <c r="B2">
+        <v>95000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
+++ b/Debyt/src/test/java/com/debyt/testData/LoginCreds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="2130" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="2130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>https://www.facebook.com</t>
   </si>
   <si>
-    <t>(111) 111-1111</t>
-  </si>
-  <si>
-    <t>saad@gmaill.com</t>
-  </si>
-  <si>
     <t>companylegalname</t>
   </si>
   <si>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>Active-De</t>
+  </si>
+  <si>
+    <t>(899) 988-0000</t>
+  </si>
+  <si>
+    <t>saddd@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -536,42 +536,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>65</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -584,32 +584,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6547</v>
+        <v>1987</v>
       </c>
       <c r="B2">
         <v>95000</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
